--- a/Quality_Assurance_Tests.xlsx
+++ b/Quality_Assurance_Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstoj\Documents\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF8DE46-420E-49AD-86A2-570F63A27D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CD141-B111-47E6-BF7E-3E3258D40D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E4C129A-A5F0-42B8-BF28-77A52E480C7F}"/>
   </bookViews>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B2F9F-9453-4C22-8D18-E3E92A2A5D67}">
   <dimension ref="C2:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C76" sqref="C76:H76"/>
     </sheetView>
   </sheetViews>
